--- a/gps_i/code_status.xlsx
+++ b/gps_i/code_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{677FDADF-5C43-41EB-809C-10CAC6C67C2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379D3DD3-D1D2-4349-900D-4B551D9D42E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{C4F2EA32-46D9-415D-BF41-ED90B91D6C3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>./include/gps_headers.h</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Lib</t>
+  </si>
+  <si>
+    <t>./forwarder/gps_i_forwarder_publication.h</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C45DDF-A80A-4044-B8A6-B8253CA7DBA0}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,6 +494,7 @@
     <col min="6" max="6" width="35.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6328125" customWidth="1"/>
     <col min="9" max="9" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -512,19 +516,19 @@
       </c>
       <c r="L1">
         <f>SUM(A:A)</f>
-        <v>2655</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f t="shared" ref="A2:A10" si="0">H2</f>
-        <v>280</v>
+        <f t="shared" ref="A2:A11" si="0">H2</f>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="H2">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -534,19 +538,19 @@
       </c>
       <c r="L2">
         <f>SUM(E:E)</f>
-        <v>1801</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="H3">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
@@ -556,44 +560,44 @@
       </c>
       <c r="L3">
         <f>L1+L2</f>
-        <v>4456</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" si="0"/>
-        <v>274</v>
+        <f t="shared" ref="A4" si="1">H4</f>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H4">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>
       </c>
       <c r="L4">
         <f>L2/L3</f>
-        <v>0.40417414721723521</v>
+        <v>0.41874875074955026</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5">
-        <v>176</v>
+        <v>274</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
         <v>32</v>
@@ -606,351 +610,366 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>273</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>396</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>396</v>
+        <v>205</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9">
-        <v>222</v>
+        <v>396</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>222</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>31</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E11">
-        <f>H11</f>
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11">
-        <v>68</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E12">
-        <f t="shared" ref="E12:E15" si="1">H12</f>
-        <v>510</v>
+        <f>H12</f>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>510</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>156</v>
+        <f t="shared" ref="E13:E16" si="2">H13</f>
+        <v>804</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H13">
-        <v>156</v>
+        <v>804</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>475</v>
+        <f t="shared" si="2"/>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>475</v>
+        <v>156</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>475</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>475</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f t="shared" si="2"/>
         <v>296</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>296</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <f t="shared" ref="A16:A18" si="2">H16</f>
-        <v>122</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>122</v>
-      </c>
-      <c r="I16" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="2"/>
-        <v>449</v>
+        <f t="shared" ref="A17:A19" si="3">H17</f>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>449</v>
+        <v>125</v>
       </c>
       <c r="I17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>449</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>449</v>
+      </c>
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>75</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C19">
-        <f>H19</f>
-        <v>522</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>522</v>
-      </c>
-      <c r="I19" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C20">
-        <f t="shared" ref="C20:C24" si="3">H20</f>
-        <v>85</v>
+        <f>H20</f>
+        <v>522</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>85</v>
+        <v>522</v>
       </c>
       <c r="I20" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C21">
-        <f t="shared" si="3"/>
-        <v>76</v>
+        <f t="shared" ref="C21:C25" si="4">H21</f>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C22">
-        <f t="shared" si="3"/>
-        <v>2292</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>2292</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C23">
-        <f t="shared" si="3"/>
-        <v>234</v>
+        <f t="shared" si="4"/>
+        <v>2292</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23">
-        <v>234</v>
+        <v>2292</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>234</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <f t="shared" si="4"/>
         <v>625</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>625</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E25">
-        <f>H25</f>
-        <v>50</v>
-      </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>50</v>
-      </c>
-      <c r="I25" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E26">
-        <f t="shared" ref="E26:E28" si="4">H26</f>
-        <v>49</v>
+        <f>H26</f>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E27">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <f t="shared" ref="E27:E29" si="5">H27</f>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H27">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>153</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>4</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>44</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:I28">
-    <sortCondition ref="I1:I28"/>
+  <sortState ref="N1:O31">
+    <sortCondition ref="O1:O31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
